--- a/Burundi data/data-complete.xlsx
+++ b/Burundi data/data-complete.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Milena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9AC9AB-2FAA-8241-8451-7A38726FE532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688B28F-DEB4-C746-9700-CFA6DDE354C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="13360" yWindow="460" windowWidth="15440" windowHeight="15940" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -1098,62 +1098,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1305,8 +1249,24 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1316,27 +1276,56 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <protection locked="0" hidden="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1465,11 +1454,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <protection locked="1" hidden="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1480,10 +1473,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1866,27 +1856,37 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1902,30 +1902,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K209" totalsRowCount="1" headerRowDxfId="16" dataDxfId="17" totalsRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K209" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
   <autoFilter ref="A1:K208" xr:uid="{92D50160-D1EB-4CE0-BC5E-AD10E29A0DA1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K208">
     <sortCondition ref="A1:A208"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
@@ -1941,14 +1941,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{A087B6AD-DA33-423B-AC5A-C78EC6ECE7C3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9578,21 +9578,21 @@
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?" sqref="E2:E208" xr:uid="{09885D5C-00D2-0141-B59B-70178AC91A0A}">
-      <formula1>0</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A208" xr:uid="{4690E091-04DF-9745-B67D-8876E7FC3F13}">
+      <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?" sqref="D2:D208" xr:uid="{7C6AECCC-3917-9A4A-9CF8-26951686971F}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" sqref="C2:C208" xr:uid="{195DEC55-2B31-8640-90CB-5C1D76883FE5}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school." sqref="B2:B208" xr:uid="{438DFA93-3DAC-E243-8E9F-1AFDFA5C9669}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school._x000a_(Optional)" sqref="B2:B208" xr:uid="{1EB9CBE6-72AA-604E-B1B4-48F58397AC29}">
       <formula1>0</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A208" xr:uid="{4690E091-04DF-9745-B67D-8876E7FC3F13}">
-      <formula1>COUNTIF($A:$A,A1)=1</formula1>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" prompt="(Optional)" sqref="C2:C208" xr:uid="{E346A493-7445-6449-A2CD-A6933BC2DFFB}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?_x000a_(Optional)_x000a_" sqref="D2:D208" xr:uid="{C3F3C86A-A291-A444-B176-8DDE8BC68258}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?_x000a_(MANDATORY)" sqref="E2:E208" xr:uid="{3F7113E2-0544-5540-895B-9F46C569439A}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9608,8 +9608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9716,28 +9716,51 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations count="7">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B2:B4" xr:uid="{FB685D5F-8143-C742-9E07-D8A35B08A457}">
+  <dataValidations count="14">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B3:B4" xr:uid="{FB685D5F-8143-C742-9E07-D8A35B08A457}">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C2:C4" xr:uid="{5700C39A-D496-8C49-9FB3-D45CF39F9207}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C3:C4" xr:uid="{5700C39A-D496-8C49-9FB3-D45CF39F9207}">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D2:D4" xr:uid="{38324273-265E-2141-BBC1-7B04F3613B28}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D3:D4" xr:uid="{38324273-265E-2141-BBC1-7B04F3613B28}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E2:E4" xr:uid="{03143953-623E-9D44-884F-31E1AB2DA4E7}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E3:E4" xr:uid="{03143953-623E-9D44-884F-31E1AB2DA4E7}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2:F4" xr:uid="{ACB5714A-E570-8A48-8A10-3D4C5CB3E202}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F3:F4" xr:uid="{ACB5714A-E570-8A48-8A10-3D4C5CB3E202}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G2:G4" xr:uid="{090B1C19-0F67-A544-9204-17A375AB371E}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G3:G4" xr:uid="{090B1C19-0F67-A544-9204-17A375AB371E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A2:A4" xr:uid="{9CBB5895-39D4-8C45-A3A1-7A8AF42DA5C4}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A3:A4" xr:uid="{9CBB5895-39D4-8C45-A3A1-7A8AF42DA5C4}">
+      <formula1>COUNTIF($A:$A,A2)=1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the central warehouse?" sqref="G2" xr:uid="{11C92992-D115-0940-9DC9-3FB15403A875}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the central warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the central warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2" xr:uid="{C7C4B93D-5EFC-2F4B-9F17-BCB076AEA1B4}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at the central warehouse permanently, i.e. enter the lower treshold on the inventory at the central warehouse_x000a_(in MT)" sqref="E2" xr:uid="{723CF60C-F589-D34C-81C4-272AB5405D89}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at the central warehouse." promptTitle="Storage Capacity of central wh" prompt="how much storage capacity does the central warehouse have_x000a_(in MT)?" sqref="D2" xr:uid="{7FC2BEA3-7D0C-F84E-AD08-FF6CA1EE4BE0}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the central warehouse is located." promptTitle="Longitude of central warehouse" prompt="At which longitude is the central warehouse located?" sqref="C2" xr:uid="{9AAE5F75-5F8F-7043-8FAB-2125D597F6B5}">
+      <formula1>-180</formula1>
+      <formula2>180</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the central warehouse." promptTitle="Latitude of central warehouse " prompt="At which latitude is the central warehouse located?_x000a_(-90° to 90°)" sqref="B2" xr:uid="{53C63082-7F03-9448-B1ED-562CC431E232}">
+      <formula1>-90</formula1>
+      <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of central warehouse" prompt="Enter a unique key of identification of the central warehouses (e.g. name)" sqref="A2" xr:uid="{E0442F71-0B88-2548-B712-41E424A8B3E4}">
       <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -9752,7 +9775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D82F5-E5C4-4F7A-919C-4E3C89A011D5}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
